--- a/src/test/java/Test_Data/Data_Sheet01.xlsx
+++ b/src/test/java/Test_Data/Data_Sheet01.xlsx
@@ -14,48 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Password</t>
+    <t xml:space="preserve">First_Name </t>
   </si>
   <si>
-    <t>Username</t>
+    <t xml:space="preserve">Last_Name </t>
   </si>
   <si>
-    <t>standard_user</t>
+    <t>Post_Code</t>
   </si>
   <si>
-    <t>secret_sauce</t>
+    <t>Test</t>
   </si>
   <si>
-    <t xml:space="preserve">Wrong_Username </t>
-  </si>
-  <si>
-    <t>Wrong_Password</t>
-  </si>
-  <si>
-    <t>User_000</t>
-  </si>
-  <si>
-    <t>Pass_000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info_Last_name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info_First_name </t>
-  </si>
-  <si>
-    <t>Zip_Code</t>
-  </si>
-  <si>
-    <t>Garnier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio </t>
-  </si>
-  <si>
-    <t>a758127</t>
+    <t>User_01</t>
   </si>
 </sst>
 </file>
@@ -105,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -113,7 +86,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,14 +398,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
@@ -436,49 +413,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4450113</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
